--- a/Mars Photos - Details - Curiosity_2015_Part2.xlsx
+++ b/Mars Photos - Details - Curiosity_2015_Part2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11833</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11834</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Details!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1340,7 +1340,7 @@
     <t>http://mars.jpl.nasa.gov/msl-raw-images/msss/00855/mcam/0855MR0037760000501034C02_DXXX.jpg</t>
   </si>
   <si>
-    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 05-Sep-2024 @ 10:38 PM)</t>
+    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 07-Sep-2024 @ 01:04 AM)</t>
   </si>
 </sst>
 </file>
@@ -6663,7 +6663,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E11833"/>
+  <autoFilter ref="A3:E11834"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/Mars Photos - Details - Curiosity_2015_Part2.xlsx
+++ b/Mars Photos - Details - Curiosity_2015_Part2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11834</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11838</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Details!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1340,7 +1340,7 @@
     <t>http://mars.jpl.nasa.gov/msl-raw-images/msss/00855/mcam/0855MR0037760000501034C02_DXXX.jpg</t>
   </si>
   <si>
-    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 07-Sep-2024 @ 01:04 AM)</t>
+    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 11-Sep-2024 @ 05:28 PM)</t>
   </si>
 </sst>
 </file>
@@ -6663,7 +6663,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E11834"/>
+  <autoFilter ref="A3:E11838"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -6885,7 +6885,7 @@
   <pageMargins left="1" right="0.5" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter>
-    <oddFooter>Data courtesy of https://github.com/chrisccerami/mars-photo-api, https://api.nasa.gov, and https://mars-photos.herokuapp.com/
+    <oddFooter>Data courtesy of https://github.com/chrisccerami/mars-photo-api, https://api.nasa.gov, and https://mars-photos.herokuapp.com
 &amp;CFile Name: &amp;F
 &amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Mars Photos - Details - Curiosity_2015_Part2.xlsx
+++ b/Mars Photos - Details - Curiosity_2015_Part2.xlsx
@@ -1340,7 +1340,7 @@
     <t>http://mars.jpl.nasa.gov/msl-raw-images/msss/00855/mcam/0855MR0037760000501034C02_DXXX.jpg</t>
   </si>
   <si>
-    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 11-Sep-2024 @ 05:28 PM)</t>
+    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 12-Sep-2024 @ 02:53 PM)</t>
   </si>
 </sst>
 </file>

--- a/Mars Photos - Details - Curiosity_2015_Part2.xlsx
+++ b/Mars Photos - Details - Curiosity_2015_Part2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11838</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11852</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Details!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1340,7 +1340,7 @@
     <t>http://mars.jpl.nasa.gov/msl-raw-images/msss/00855/mcam/0855MR0037760000501034C02_DXXX.jpg</t>
   </si>
   <si>
-    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 12-Sep-2024 @ 02:53 PM)</t>
+    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 25-Sep-2024 @ 11:17 PM)</t>
   </si>
 </sst>
 </file>
@@ -6663,7 +6663,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E11838"/>
+  <autoFilter ref="A3:E11852"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/Mars Photos - Details - Curiosity_2015_Part2.xlsx
+++ b/Mars Photos - Details - Curiosity_2015_Part2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$3:$E$11854</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Details!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1340,7 +1340,7 @@
     <t>http://mars.jpl.nasa.gov/msl-raw-images/msss/00855/mcam/0855MR0037760000501034C02_DXXX.jpg</t>
   </si>
   <si>
-    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 25-Sep-2024 @ 11:17 PM)</t>
+    <t>PHOTOS TAKEN BY MARS ROVER 'CURIOSITY' - Year 2015, Part 2 of 2 (as of 28-Sep-2024 @ 03:08 PM)</t>
   </si>
 </sst>
 </file>
@@ -6663,7 +6663,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E11852"/>
+  <autoFilter ref="A3:E11854"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
